--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Rf9ed8431dffb413c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Ra63c272f4bd44cc3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd083d10029d54c13"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R520b47f6151e4ed9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raf6cedd1bd55461f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdd490321802d4157"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R86872fc135444f26"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra3b7c127518142d4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -520,6 +520,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6f2832cae9664d62"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R518da33ff0b44062"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Ra63c272f4bd44cc3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R62fbdf95c4d94292"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R520b47f6151e4ed9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8c17243595d24683"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdd490321802d4157"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd7b4db6e5be341b0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra3b7c127518142d4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0749f27fd7da4f2e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -520,6 +520,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R518da33ff0b44062"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R818f57dda2f94a61"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R62fbdf95c4d94292"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Rd2dbb923ed974636"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8c17243595d24683"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R71ec19077bbe42f8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd7b4db6e5be341b0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4e89643e557b4f40"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0749f27fd7da4f2e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1da6d93c63af458e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -520,6 +520,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R818f57dda2f94a61"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R101fd983690e4834"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Rd2dbb923ed974636"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R77c572ed530e4819"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R71ec19077bbe42f8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5029bee4fa614908"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4e89643e557b4f40"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbf7ddbee077b4b5e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1da6d93c63af458e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R77c7bc77307f490c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -520,6 +520,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R101fd983690e4834"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2af69ba95f834415"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R77c572ed530e4819"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R217723cba48c499a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5029bee4fa614908"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc7e54718a4f94a95"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbf7ddbee077b4b5e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4f26241fe13542a7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R77c7bc77307f490c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Red581b128bc944ed"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -520,6 +520,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2af69ba95f834415"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R99ce18d770694515"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R217723cba48c499a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R6d3bc7546d0849e3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc7e54718a4f94a95"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re6ee623442884818"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4f26241fe13542a7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcb6d66916ad140b0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Red581b128bc944ed"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rba644f2cc248425c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -520,6 +520,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R99ce18d770694515"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9cc4589b849e4c61"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R6d3bc7546d0849e3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R6c351b5d34614bc3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re6ee623442884818"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R593ea3e72a814531"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcb6d66916ad140b0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc10745aa03634da2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rba644f2cc248425c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R359e9ec92f0c4632"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -520,6 +520,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9cc4589b849e4c61"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R49036ac14e0f4614"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R6c351b5d34614bc3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R14862fe6c13a4180"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R593ea3e72a814531"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re783a81eb0134d7a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc10745aa03634da2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf7c84b297a3d45bc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R359e9ec92f0c4632"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7e2ada903b864cf7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -520,6 +520,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R49036ac14e0f4614"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R22201643773249a8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R14862fe6c13a4180"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Rc7c8b7b6814549e8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re783a81eb0134d7a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2d6f6d379143440c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf7c84b297a3d45bc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R51e6a75f12be4c66"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7e2ada903b864cf7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd3c4bc6e3227452c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -520,6 +520,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R22201643773249a8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R98492d0edaab4ced"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Rc7c8b7b6814549e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R6b4daf45fd4f4306"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2d6f6d379143440c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9f6bec99eb764c13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R51e6a75f12be4c66"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R260db8f28fdc458b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd3c4bc6e3227452c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R47ef372ff1ac4a6c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -520,6 +520,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R98492d0edaab4ced"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5e6f2452db344b1e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R6b4daf45fd4f4306"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Raf0b829b9137460a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9f6bec99eb764c13"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfbcad3623f9747a6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R260db8f28fdc458b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R12c1194e183840db"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R47ef372ff1ac4a6c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rce5733ab6d1644d6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -520,6 +520,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5e6f2452db344b1e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R04de2a71fd574d35"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Raf0b829b9137460a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R3dfbf1ae25cd4c5f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfbcad3623f9747a6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R78b1511208614a7f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R12c1194e183840db"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R441c7f1489a54265"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rce5733ab6d1644d6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1a799b712a5d4079"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -520,6 +520,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R04de2a71fd574d35"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2756634386564270"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R3dfbf1ae25cd4c5f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R91ee18b33075441b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R78b1511208614a7f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4991f45b51dd41ae"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R441c7f1489a54265"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R835989744db04903"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1a799b712a5d4079"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd8407f2f210d45e5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -520,6 +520,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2756634386564270"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R57f0d4d435764746"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R91ee18b33075441b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Rdd5767b5e636434b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4991f45b51dd41ae"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R259a6c5f14fb4db3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R835989744db04903"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfacd6a7bc79e4827"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd8407f2f210d45e5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R78b9b9506008464b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -520,6 +520,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R57f0d4d435764746"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb2bca628a7b54e4f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Rdd5767b5e636434b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R0bc5187cfd144dd1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R259a6c5f14fb4db3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re33e4718ba224db6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfacd6a7bc79e4827"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R09aec485510140b3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R78b9b9506008464b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R797eb895ff974ddd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -520,6 +520,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb2bca628a7b54e4f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R69c0571af3f74199"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R0bc5187cfd144dd1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R4c93579135744784"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re33e4718ba224db6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc599e561562347dc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R09aec485510140b3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R61a3a10f4d114437"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R797eb895ff974ddd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R29c834a19d3e4726"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -520,6 +520,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R69c0571af3f74199"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R64b5ccb17e6b4f86"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R4c93579135744784"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R802824b477234e0c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,6 +223,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Quarterly Data'!$A$2:$A$5</c:f>
@@ -320,6 +323,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Quarterly Data'!$Q$2:$Q$4</c:f>
@@ -368,7 +374,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc599e561562347dc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R25ae03900d7d42d8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +404,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R61a3a10f4d114437"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R11b4133d9ccf45d6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +434,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R29c834a19d3e4726"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1d87f015ae704eef"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -520,6 +526,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R64b5ccb17e6b4f86"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfe4f8f05d6654288"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R802824b477234e0c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R367b86fbf5ea4901"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -374,7 +374,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R25ae03900d7d42d8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2fa2cf819d34458e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -404,7 +404,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R11b4133d9ccf45d6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R850158fdbf904145"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -434,7 +434,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1d87f015ae704eef"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re810960174dd43c7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -526,6 +526,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfe4f8f05d6654288"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7952631d107b4a34"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R367b86fbf5ea4901"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R6afd757560fb4712"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -226,6 +226,9 @@
           <c:tx>
             <c:v>Series 1</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Quarterly Data'!$A$2:$A$5</c:f>
@@ -374,7 +377,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2fa2cf819d34458e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4b5644e5757b4f27"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -404,7 +407,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R850158fdbf904145"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0b80f3e3d053407f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -434,7 +437,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re810960174dd43c7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R01a26d0ad3f34a04"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -526,6 +529,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7952631d107b4a34"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R715f488079404fdb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R6afd757560fb4712"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R8b46ef392bd1479f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -377,7 +377,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4b5644e5757b4f27"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R59aac0a7f0f64877"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -407,7 +407,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0b80f3e3d053407f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rba418c65bee343cd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -437,7 +437,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R01a26d0ad3f34a04"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R01e4cf32ae754b56"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -529,6 +529,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R715f488079404fdb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R523523ac91af4c8f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R8b46ef392bd1479f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R9481a68940cf4d90"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -377,7 +377,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R59aac0a7f0f64877"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1b43f89d5d734673"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -407,7 +407,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rba418c65bee343cd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd883347601d14e55"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -437,7 +437,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R01e4cf32ae754b56"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R376d8877da9d4293"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -529,6 +529,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R523523ac91af4c8f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re40bea0c868648d2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R9481a68940cf4d90"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Rca89bc9de39849a9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -377,7 +377,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1b43f89d5d734673"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R47cc15f9cbc84381"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -407,7 +407,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd883347601d14e55"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R35f32f15906946d7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -437,7 +437,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R376d8877da9d4293"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R85d9f638af764c52"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -529,6 +529,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re40bea0c868648d2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7a49e53e651941cf"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/53_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Rca89bc9de39849a9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Ra4f677ae75ad4ea3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -240,6 +240,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:lineChart>
@@ -340,6 +348,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
@@ -377,7 +393,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R47cc15f9cbc84381"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ree890ab8d51d4d34"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -407,7 +423,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R35f32f15906946d7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3f4785c9f51b43d6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -437,7 +453,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R85d9f638af764c52"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf3f63f58b47043af"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -529,6 +545,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7a49e53e651941cf"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R39b9a91afaf74abd"/>
 </x:worksheet>
 </file>